--- a/Sprint Burndown Chart.xlsx
+++ b/Sprint Burndown Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claus\Documents\Schule\Scrum\Projekte\Vokabeltrainer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\OneDrive\Development\Java\Vokabeltrainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867BAC1E-7584-476C-936B-DDD76DDFD37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C303B6-F0B5-4BA1-8CC4-2B11A4C0F4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7515D94D-545D-4182-8278-535D5E64474B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7515D94D-545D-4182-8278-535D5E64474B}"/>
   </bookViews>
   <sheets>
     <sheet name="Vokabeltrainer Sprint 1" sheetId="1" r:id="rId1"/>
@@ -282,16 +282,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -352,19 +352,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2717,7 +2717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2728,19 +2728,19 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2768,69 +2768,77 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>SUM(B4:B7)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
         <f>C3</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>44986</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
       <c r="C4" s="5">
         <f>C3-B4</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="5">
         <f>E3-D4</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>45000</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>20</v>
+      </c>
       <c r="C5" s="5">
         <f>C4-B5</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="5">
         <f>E4-D5</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>45014</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>15</v>
+      </c>
       <c r="C6" s="5">
         <f t="shared" ref="C6:E6" si="0">C5-B6</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>45042</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>10</v>
+      </c>
       <c r="C7" s="5">
         <f t="shared" ref="C7" si="1">C6-B7</f>
         <v>0</v>
@@ -2838,10 +2846,10 @@
       <c r="D7" s="2"/>
       <c r="E7" s="5">
         <f t="shared" ref="E7" si="2">E6-D7</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
     </row>
   </sheetData>
@@ -2866,16 +2874,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2888,7 +2896,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2903,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
@@ -2916,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>45070</v>
       </c>
@@ -2931,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>45098</v>
       </c>
@@ -2946,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>45112</v>
       </c>
@@ -2961,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
